--- a/medicine/Psychotrope/Lounge_bar/Lounge_bar.xlsx
+++ b/medicine/Psychotrope/Lounge_bar/Lounge_bar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un lounge bar, bar lounge ou lounge est un type de bar qui offre une ambiance feutrée. Le terme lounge signifie en anglais « salon ». Selon l'universitaire Pascal Lardellier, les cafés contemporains se développent surtout dans les centre-villes aux dépens des bistrots de quartier, dans le cadre de stratégie de revitalisation urbaine marquée par une double tendance, la « Starbuckisation » et la « loungisation »[1].
-L'esthétique lounge se fonde sur deux styles : hyperbaroque avec des rideaux et tentures, des banquettes, poufs, fauteuils clubs et canapés confortables remplaçant les chaises, des lumières tamisées, parfois colorées, et la diffusion de musique d'ambiance dite « musique lounge » qui invitent à la détente[2],[3] ; épuré qui privilégie les tons blancs et les grands écrans plats[4].
-Parmi la carte des boissons servies figurent en bonne place les cocktails, le vin, parfois le champagne. Les menus raffinés complètent ce service ostentatoire[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un lounge bar, bar lounge ou lounge est un type de bar qui offre une ambiance feutrée. Le terme lounge signifie en anglais « salon ». Selon l'universitaire Pascal Lardellier, les cafés contemporains se développent surtout dans les centre-villes aux dépens des bistrots de quartier, dans le cadre de stratégie de revitalisation urbaine marquée par une double tendance, la « Starbuckisation » et la « loungisation ».
+L'esthétique lounge se fonde sur deux styles : hyperbaroque avec des rideaux et tentures, des banquettes, poufs, fauteuils clubs et canapés confortables remplaçant les chaises, des lumières tamisées, parfois colorées, et la diffusion de musique d'ambiance dite « musique lounge » qui invitent à la détente, ; épuré qui privilégie les tons blancs et les grands écrans plats.
+Parmi la carte des boissons servies figurent en bonne place les cocktails, le vin, parfois le champagne. Les menus raffinés complètent ce service ostentatoire.
 </t>
         </is>
       </c>
